--- a/biology/Zoologie/Cubophis_cantherigerus/Cubophis_cantherigerus.xlsx
+++ b/biology/Zoologie/Cubophis_cantherigerus/Cubophis_cantherigerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cubophis cantherigerus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cubophis cantherigerus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Cuba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 mars 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 mars 2015) :
 Cubophis cantherigerus adspersus (Gundlach &amp; Peters, 1864)
 Cubophis cantherigerus cantherigerus (Bibron, 1843)
 Cubophis cantherigerus pepei (Schwartz &amp; Thomas, 1970)
@@ -576,9 +592,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Cubophis cantherigerus caymanus, Cubophis cantherigerus fuscicauda et Cubophis cantherigerus ruttyi ont été élevées au rang d"espèce par Hedges, Couloux et Vidal en 2009[3] et la sous-espèce Cubophis cantherigerus brooksi[4] a été élevée au rang d"espèce par McCranie en 2011[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Cubophis cantherigerus caymanus, Cubophis cantherigerus fuscicauda et Cubophis cantherigerus ruttyi ont été élevées au rang d"espèce par Hedges, Couloux et Vidal en 2009 et la sous-espèce Cubophis cantherigerus brooksi a été élevée au rang d"espèce par McCranie en 2011.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bibron, 1843 in Cocteau &amp; Bibron, 1843 : Reptiles, p. 1-143 in Sagra, 1843 : Historia Física, Politica y Natural de la Isla de Cuba. Arthus Bertrand, Paris, vol. 4 (texte intégral).
 Lando &amp; Williams, 1969 : Notes on the herpetology of the U.S. naval base at Guantanamo Bay, Cuba. Uitgaven Natuurwetenschappelijke Studiekring voor Suriname en de Nederlandse Antillen, vol. 31, no 57, p. 159-201.
